--- a/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/207485.xlsx
+++ b/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/207485.xlsx
@@ -458,182 +458,182 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>W_Beoordelen fraude-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>O_SELECTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-START</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACTIVATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>A_APPROVED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-COMPLETE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>A_PARTLYSUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-START</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-START</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>A_SUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>A_REGISTERED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT_BACK-COMPLETE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-START</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-START</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>O_CREATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>O_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>W_Wijzigen contractgegevens-SCHEDULE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>A_SUBMITTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>A_PREACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>A_FINALIZED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>O_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>A_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>A_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>O_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>W_Nabellen offertes-SCHEDULE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-START</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>A_FINALIZED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>W_Valideren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>O_SELECTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-START</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>A_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-COMPLETE</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>A_APPROVED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-COMPLETE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>O_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-COMPLETE</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>A_PREACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>O_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-START</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACTIVATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>O_CREATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>A_REGISTERED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>A_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-START</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>O_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT_BACK-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>A_PARTLYSUBMITTED-COMPLETE</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="2" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="2" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="2" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1393,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -1478,13 +1478,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="2" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="2" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1605,13 +1605,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1653,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
@@ -1756,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="2" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="2" t="n">
         <v>0</v>
@@ -1801,13 +1801,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="2" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1865,13 +1865,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -1928,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="n">
         <v>0</v>
@@ -1998,13 +1998,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="2" t="n">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="AB12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="2" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="2" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2143,16 +2143,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -2164,37 +2164,37 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2" t="n">
         <v>0</v>
@@ -2258,13 +2258,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="2" t="n">
         <v>0</v>
@@ -2297,13 +2297,13 @@
         <v>0</v>
       </c>
       <c r="AB14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="2" t="n">
         <v>0</v>
@@ -2321,13 +2321,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="2" t="inlineStr">
         <is>
@@ -2349,10 +2349,10 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -2379,19 +2379,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -2424,19 +2424,19 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -2448,13 +2448,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" s="2" t="n">
         <v>0</v>
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="2" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="AB16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD16" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="2" t="n">
         <v>0</v>
@@ -2581,13 +2581,13 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="2" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2639,19 +2639,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2663,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2684,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -2708,13 +2708,13 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" s="2" t="n">
         <v>0</v>
@@ -2778,13 +2778,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
@@ -2796,10 +2796,10 @@
         <v>0</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="2" t="n">
         <v>0</v>
@@ -2817,13 +2817,13 @@
         <v>0</v>
       </c>
       <c r="AB18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD18" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="2" t="n">
         <v>0</v>
@@ -2841,13 +2841,13 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="2" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2899,19 +2899,19 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2923,13 +2923,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2944,16 +2944,16 @@
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -2968,13 +2968,13 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" s="2" t="n">
         <v>0</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
@@ -3056,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="2" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="AB20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD20" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="2" t="n">
         <v>0</v>
@@ -3101,13 +3101,13 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="2" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -3165,13 +3165,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3183,19 +3183,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
@@ -3204,16 +3204,16 @@
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
         <v>0</v>
@@ -3228,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" s="2" t="n">
         <v>0</v>
@@ -3298,13 +3298,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="2" t="n">
         <v>0</v>
@@ -3337,13 +3337,13 @@
         <v>0</v>
       </c>
       <c r="AB22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD22" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="2" t="n">
         <v>0</v>
@@ -3361,13 +3361,13 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="2" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -3425,13 +3425,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3443,10 +3443,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -3464,13 +3464,13 @@
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
         <v>1</v>
@@ -3488,13 +3488,13 @@
         <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" s="2" t="n">
         <v>0</v>
@@ -3558,13 +3558,13 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
@@ -3576,10 +3576,10 @@
         <v>0</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="2" t="n">
         <v>0</v>
@@ -3597,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="AB24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD24" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="2" t="n">
         <v>0</v>
@@ -3621,13 +3621,13 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="2" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -3685,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3703,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -3724,13 +3724,13 @@
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
         <v>1</v>
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" s="2" t="n">
         <v>0</v>
@@ -3818,13 +3818,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" s="2" t="n">
         <v>0</v>
@@ -3857,13 +3857,13 @@
         <v>0</v>
       </c>
       <c r="AB26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD26" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="2" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="2" t="inlineStr">
         <is>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -3984,37 +3984,37 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27" t="n">
         <v>0</v>
       </c>
       <c r="AH27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI27" t="n">
         <v>0</v>
       </c>
       <c r="AJ27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK27" t="n">
         <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J28" s="2" t="n">
         <v>0</v>
@@ -4078,13 +4078,13 @@
         <v>0</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
@@ -4096,10 +4096,10 @@
         <v>0</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="2" t="n">
         <v>0</v>
@@ -4117,13 +4117,13 @@
         <v>0</v>
       </c>
       <c r="AB28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD28" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="2" t="n">
         <v>0</v>
@@ -4141,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="2" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -4205,13 +4205,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4223,10 +4223,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -4244,13 +4244,13 @@
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29" t="n">
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
         <v>1</v>
@@ -4268,13 +4268,13 @@
         <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J30" s="2" t="n">
         <v>0</v>
@@ -4338,13 +4338,13 @@
         <v>0</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
@@ -4356,10 +4356,10 @@
         <v>0</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="2" t="n">
         <v>0</v>
@@ -4377,13 +4377,13 @@
         <v>0</v>
       </c>
       <c r="AB30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD30" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="2" t="n">
         <v>0</v>
@@ -4401,13 +4401,13 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="2" t="inlineStr">
         <is>
@@ -4432,10 +4432,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -4465,13 +4465,13 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4483,10 +4483,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -4504,13 +4504,13 @@
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31" t="n">
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
@@ -4528,13 +4528,13 @@
         <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK31" t="n">
         <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J32" s="2" t="n">
         <v>0</v>
@@ -4598,13 +4598,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>0</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" s="2" t="n">
         <v>0</v>
@@ -4637,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="AB32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD32" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="2" t="n">
         <v>0</v>
@@ -4661,13 +4661,13 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="2" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4743,10 +4743,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -4764,19 +4764,19 @@
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33" t="n">
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33" t="n">
         <v>0</v>
@@ -4788,13 +4788,13 @@
         <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="n">
         <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J34" s="2" t="n">
         <v>0</v>
@@ -4858,13 +4858,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
@@ -4876,10 +4876,10 @@
         <v>0</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="2" t="n">
         <v>0</v>
@@ -4897,13 +4897,13 @@
         <v>0</v>
       </c>
       <c r="AB34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD34" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="2" t="n">
         <v>0</v>
@@ -4921,13 +4921,13 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="2" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -4967,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -4985,13 +4985,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5003,10 +5003,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -5024,16 +5024,16 @@
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35" t="n">
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35" t="n">
         <v>0</v>
@@ -5045,16 +5045,16 @@
         <v>0</v>
       </c>
       <c r="AI35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ35" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK35" t="n">
         <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>0</v>
@@ -5100,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J36" s="2" t="n">
         <v>0</v>
@@ -5118,13 +5118,13 @@
         <v>0</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="2" t="n">
         <v>0</v>
@@ -5136,10 +5136,10 @@
         <v>0</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="2" t="n">
         <v>0</v>
@@ -5157,13 +5157,13 @@
         <v>0</v>
       </c>
       <c r="AB36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD36" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="2" t="n">
         <v>0</v>
@@ -5181,13 +5181,13 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="2" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -5245,13 +5245,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5263,10 +5263,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -5284,13 +5284,13 @@
         <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC37" t="n">
         <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
         <v>0</v>
@@ -5302,19 +5302,19 @@
         <v>0</v>
       </c>
       <c r="AH37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ37" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK37" t="n">
         <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
@@ -5360,10 +5360,10 @@
         <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="2" t="n">
         <v>1</v>
@@ -5378,13 +5378,13 @@
         <v>0</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>0</v>
@@ -5396,10 +5396,10 @@
         <v>0</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" s="2" t="n">
         <v>0</v>
@@ -5417,13 +5417,13 @@
         <v>0</v>
       </c>
       <c r="AB38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD38" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="2" t="n">
         <v>0</v>
@@ -5441,13 +5441,13 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="2" t="inlineStr">
         <is>
@@ -5487,10 +5487,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -5499,19 +5499,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5523,10 +5523,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -5544,13 +5544,13 @@
         <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC39" t="n">
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE39" t="n">
         <v>0</v>
@@ -5568,13 +5568,13 @@
         <v>0</v>
       </c>
       <c r="AJ39" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
@@ -5614,16 +5614,16 @@
         <v>0</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="2" t="n">
         <v>1</v>
@@ -5638,13 +5638,13 @@
         <v>0</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="2" t="n">
         <v>0</v>
@@ -5656,10 +5656,10 @@
         <v>0</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="2" t="n">
         <v>0</v>
@@ -5677,13 +5677,13 @@
         <v>0</v>
       </c>
       <c r="AB40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="2" t="n">
         <v>0</v>
@@ -5701,13 +5701,13 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="2" t="inlineStr">
         <is>
@@ -5741,16 +5741,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
@@ -5765,13 +5765,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -5783,10 +5783,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -5807,10 +5807,10 @@
         <v>1</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
         <v>0</v>
@@ -5825,16 +5825,16 @@
         <v>0</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ41" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK41" t="n">
         <v>0</v>
       </c>
       <c r="AL41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" t="inlineStr">
         <is>
@@ -5874,16 +5874,16 @@
         <v>0</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2" t="n">
         <v>1</v>
@@ -5898,13 +5898,13 @@
         <v>0</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="2" t="n">
         <v>0</v>
@@ -5916,13 +5916,13 @@
         <v>0</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42" s="2" t="n">
         <v>0</v>
@@ -5934,16 +5934,16 @@
         <v>1</v>
       </c>
       <c r="AA42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="2" t="n">
         <v>0</v>
@@ -5961,13 +5961,13 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="2" t="inlineStr">
         <is>
@@ -6001,16 +6001,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
@@ -6025,13 +6025,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6043,13 +6043,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -6061,16 +6061,16 @@
         <v>1</v>
       </c>
       <c r="AA43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43" t="n">
         <v>1</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
         <v>0</v>
@@ -6085,16 +6085,16 @@
         <v>0</v>
       </c>
       <c r="AI43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ43" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK43" t="n">
         <v>0</v>
       </c>
       <c r="AL43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
@@ -6134,16 +6134,16 @@
         <v>0</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="2" t="n">
         <v>1</v>
@@ -6158,13 +6158,13 @@
         <v>0</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="2" t="n">
         <v>0</v>
@@ -6176,13 +6176,13 @@
         <v>0</v>
       </c>
       <c r="U44" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" s="2" t="n">
         <v>0</v>
@@ -6194,16 +6194,16 @@
         <v>1</v>
       </c>
       <c r="AA44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="2" t="n">
         <v>0</v>
@@ -6221,13 +6221,13 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="2" t="inlineStr">
         <is>
@@ -6261,16 +6261,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
@@ -6285,13 +6285,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6303,13 +6303,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -6321,16 +6321,16 @@
         <v>1</v>
       </c>
       <c r="AA45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45" t="n">
         <v>1</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE45" t="n">
         <v>0</v>
@@ -6345,16 +6345,16 @@
         <v>0</v>
       </c>
       <c r="AI45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ45" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK45" t="n">
         <v>1</v>
       </c>
       <c r="AL45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" t="inlineStr">
         <is>
@@ -6388,22 +6388,22 @@
         <v>1</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>1</v>
@@ -6418,13 +6418,13 @@
         <v>0</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="2" t="n">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         <v>0</v>
       </c>
       <c r="U46" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" s="2" t="n">
         <v>0</v>
@@ -6454,16 +6454,16 @@
         <v>1</v>
       </c>
       <c r="AA46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="2" t="n">
         <v>0</v>
@@ -6481,13 +6481,13 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK46" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="2" t="inlineStr">
         <is>
@@ -6515,22 +6515,22 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
@@ -6545,13 +6545,13 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -6563,13 +6563,13 @@
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
@@ -6581,16 +6581,16 @@
         <v>1</v>
       </c>
       <c r="AA47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB47" t="n">
         <v>1</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE47" t="n">
         <v>0</v>
@@ -6605,16 +6605,16 @@
         <v>0</v>
       </c>
       <c r="AI47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ47" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK47" t="n">
         <v>1</v>
       </c>
       <c r="AL47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" t="inlineStr">
         <is>
@@ -6648,22 +6648,22 @@
         <v>1</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="2" t="n">
         <v>1</v>
@@ -6678,13 +6678,13 @@
         <v>0</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="2" t="n">
         <v>0</v>
@@ -6696,13 +6696,13 @@
         <v>0</v>
       </c>
       <c r="U48" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48" s="2" t="n">
         <v>0</v>
@@ -6714,16 +6714,16 @@
         <v>1</v>
       </c>
       <c r="AA48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE48" s="2" t="n">
         <v>0</v>
@@ -6741,13 +6741,13 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK48" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="2" t="inlineStr">
         <is>
@@ -6775,22 +6775,22 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -6805,13 +6805,13 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -6823,13 +6823,13 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V49" t="n">
         <v>1</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" t="n">
         <v>0</v>
@@ -6841,16 +6841,16 @@
         <v>1</v>
       </c>
       <c r="AA49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE49" t="n">
         <v>0</v>
@@ -6868,13 +6868,13 @@
         <v>0</v>
       </c>
       <c r="AJ49" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK49" t="n">
         <v>1</v>
       </c>
       <c r="AL49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49" t="inlineStr">
         <is>
@@ -6908,22 +6908,22 @@
         <v>1</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="2" t="n">
         <v>1</v>
@@ -6935,16 +6935,16 @@
         <v>0</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="2" t="n">
         <v>0</v>
@@ -6956,16 +6956,16 @@
         <v>0</v>
       </c>
       <c r="U50" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="2" t="n">
         <v>0</v>
@@ -6974,16 +6974,16 @@
         <v>1</v>
       </c>
       <c r="AA50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE50" s="2" t="n">
         <v>0</v>
@@ -7001,13 +7001,13 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50" s="2" t="inlineStr">
         <is>
@@ -7032,25 +7032,25 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -7062,16 +7062,16 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7083,16 +7083,16 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y51" t="n">
         <v>0</v>
@@ -7101,16 +7101,16 @@
         <v>1</v>
       </c>
       <c r="AA51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB51" t="n">
         <v>1</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE51" t="n">
         <v>0</v>
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="AJ51" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK51" t="n">
         <v>1</v>
@@ -7168,22 +7168,22 @@
         <v>1</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="2" t="n">
         <v>1</v>
@@ -7198,13 +7198,13 @@
         <v>1</v>
       </c>
       <c r="O52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="2" t="n">
         <v>0</v>
@@ -7216,16 +7216,16 @@
         <v>0</v>
       </c>
       <c r="U52" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="2" t="n">
         <v>0</v>
@@ -7237,13 +7237,13 @@
         <v>1</v>
       </c>
       <c r="AB52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE52" s="2" t="n">
         <v>0</v>
@@ -7261,13 +7261,13 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52" s="2" t="inlineStr">
         <is>
@@ -7295,22 +7295,22 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>1</v>
@@ -7325,34 +7325,34 @@
         <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" t="n">
         <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y53" t="n">
         <v>0</v>
@@ -7367,10 +7367,10 @@
         <v>1</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE53" t="n">
         <v>0</v>
@@ -7388,13 +7388,13 @@
         <v>0</v>
       </c>
       <c r="AJ53" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK53" t="n">
         <v>1</v>
       </c>
       <c r="AL53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" t="inlineStr">
         <is>
@@ -7428,22 +7428,22 @@
         <v>1</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="2" t="n">
         <v>1</v>
@@ -7455,16 +7455,16 @@
         <v>0</v>
       </c>
       <c r="N54" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="2" t="n">
         <v>0</v>
@@ -7476,16 +7476,16 @@
         <v>0</v>
       </c>
       <c r="U54" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="2" t="n">
         <v>0</v>
@@ -7497,13 +7497,13 @@
         <v>1</v>
       </c>
       <c r="AB54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="2" t="n">
         <v>0</v>
@@ -7521,13 +7521,13 @@
         <v>0</v>
       </c>
       <c r="AJ54" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK54" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54" s="2" t="inlineStr">
         <is>
@@ -7555,22 +7555,22 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>1</v>
@@ -7579,19 +7579,19 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -7603,16 +7603,16 @@
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y55" t="n">
         <v>0</v>
@@ -7624,13 +7624,13 @@
         <v>1</v>
       </c>
       <c r="AB55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD55" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE55" t="n">
         <v>0</v>
@@ -7648,13 +7648,13 @@
         <v>0</v>
       </c>
       <c r="AJ55" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AK55" t="n">
         <v>1</v>
       </c>
       <c r="AL55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55" t="inlineStr">
         <is>
@@ -7688,22 +7688,22 @@
         <v>1</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="2" t="n">
         <v>1</v>
@@ -7715,16 +7715,16 @@
         <v>0</v>
       </c>
       <c r="N56" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="2" t="n">
         <v>0</v>
@@ -7736,16 +7736,16 @@
         <v>0</v>
       </c>
       <c r="U56" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="2" t="n">
         <v>0</v>
@@ -7757,19 +7757,19 @@
         <v>1</v>
       </c>
       <c r="AB56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG56" s="2" t="n">
         <v>0</v>
@@ -7781,13 +7781,13 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56" s="2" t="inlineStr">
         <is>
@@ -7821,22 +7821,22 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="2" t="n">
         <v>1</v>
@@ -7848,16 +7848,16 @@
         <v>0</v>
       </c>
       <c r="N57" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="2" t="n">
         <v>0</v>
@@ -7869,16 +7869,16 @@
         <v>0</v>
       </c>
       <c r="U57" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="X57" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="2" t="n">
         <v>0</v>
@@ -7890,37 +7890,37 @@
         <v>1</v>
       </c>
       <c r="AB57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD57" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ57" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57" s="2" t="inlineStr">
         <is>
@@ -7954,22 +7954,22 @@
         <v>1</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2" t="n">
         <v>1</v>
@@ -7984,13 +7984,13 @@
         <v>2</v>
       </c>
       <c r="O58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="2" t="n">
         <v>0</v>
@@ -8002,58 +8002,58 @@
         <v>0</v>
       </c>
       <c r="U58" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="X58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA58" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD58" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ58" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="2" t="inlineStr">
         <is>
